--- a/data/trans_dic/P23_5_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_5_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucho menos amor y afecto de lo que desea</t>
+          <t>Población que recibe menos o mucho menos amor y afecto de lo que desea (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>6,57%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>4,33%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,97%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>4,74%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>7,29%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,28%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,78</t>
+          <t>2,69; 6,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,17</t>
+          <t>2,04; 5,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,85</t>
+          <t>2,25; 5,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,17; 10,37</t>
+          <t>3,52; 7,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,97</t>
+          <t>6,06; 10,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,4</t>
+          <t>6,76; 11,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,87</t>
+          <t>3,03; 6,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,83</t>
+          <t>3,22; 5,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,67</t>
+          <t>4,58; 8,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 5,16</t>
+          <t>3,89; 7,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,81</t>
+          <t>4,79; 8,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,99; 8,67</t>
+          <t>5,87; 9,42</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 5,74</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 5,09</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3,7; 5,96</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 6,82</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 8,66</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6,8; 10,02</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>5,89%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,91%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4,78%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>5,63%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>6,11%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,99%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,14%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 10,1</t>
+          <t>4,22; 10,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 9,5</t>
+          <t>4,37; 9,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,31</t>
+          <t>2,17; 5,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,58</t>
+          <t>2,75; 7,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,05; 8,69</t>
+          <t>3,47; 10,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,35</t>
+          <t>6,2; 13,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,76</t>
+          <t>4,2; 10,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,54</t>
+          <t>2,34; 5,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,31</t>
+          <t>3,19; 6,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,6</t>
+          <t>3,5; 7,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,5</t>
+          <t>3,16; 9,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,34</t>
+          <t>4,46; 10,88</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 8,7</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,74; 6,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 5,48</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,44; 6,35</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,82; 8,42</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 11,11</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,81%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,04%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>3,78%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,05</t>
+          <t>0,0; 4,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 18,11</t>
+          <t>1,04; 20,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 8,72</t>
+          <t>0,94; 8,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,95</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 5,8</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 9,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 8,57</t>
+          <t>0,69; 6,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>2,79; 9,75</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 8,24</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 6,72</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 4,13</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 11,13</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 6,79</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 4,14</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 12,39</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 7,25</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 4,65</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,53%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>6,36%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,73%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>4,49%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>4,39%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,42</t>
+          <t>3,61; 6,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,58</t>
+          <t>3,62; 6,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,43</t>
+          <t>2,54; 4,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 9,36</t>
+          <t>3,21; 5,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,97</t>
+          <t>6,02; 9,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,22</t>
+          <t>7,34; 11,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 6,49</t>
+          <t>3,82; 6,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,26</t>
+          <t>3,42; 5,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 5,73</t>
+          <t>4,34; 6,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 5,55</t>
+          <t>4,1; 6,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 5,21</t>
+          <t>4,98; 8,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 8,23</t>
+          <t>5,86; 9,22</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 5,98</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 5,6</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 5,29</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 5,66</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 8,16</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>7,16; 9,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucho menos amor y afecto de lo que desea (tasa de respuesta: 99,82%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>72079</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>52886</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55491</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>83463</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18435</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20530</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>78612</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>82484</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>110103</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>102240</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15620</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>17727</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>150691</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>135370</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>165594</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>185703</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>34055</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>38257</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>44307; 105626</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>33520; 83702</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>36964; 82809</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>57300; 123523</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13887; 23267</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15275; 26405</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>54301; 110793</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>58808; 108200</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>83047; 146396</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>70020; 140267</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11389; 19957</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13842; 22200</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>112952; 197383</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>105598; 177018</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>127972; 205938</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>142960; 233893</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>27541; 40449</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>31404; 46270</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>88658</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>89953</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>49187</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>59368</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4210</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6992</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>89633</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>48178</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>65766</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>70926</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3689</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4837</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>178291</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>138131</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>114953</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>130294</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7899</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>11829</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>57647; 141721</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>60125; 131820</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29705; 73535</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>38149; 97923</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2478; 7246</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4527; 10046</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>58351; 140446</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>31896; 71684</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>43848; 92618</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>48409; 102165</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2072; 6249</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2971; 7242</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>133728; 239665</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>102502; 183376</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>87405; 150384</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>95157; 175726</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5234; 11543</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8443; 15501</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23565</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13660</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5684</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10994</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21688</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18034</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10947</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>16265</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>45253</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>31695</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>16631</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17272</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4389; 88310</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3982; 35107</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20163</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2849; 25573</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11372; 39758</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7698; 33945</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2721; 27492</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7652; 34240</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>22338; 102926</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>15999; 60554</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>6325; 38006</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>166404</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>118338</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>148515</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>22646</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27522</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>179239</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>152350</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>193903</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>184113</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19308</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>22564</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>345246</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>318754</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>312241</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>332628</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>41954</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>50085</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>123812; 218555</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>124575; 225349</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>87339; 156428</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>109947; 200811</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>18098; 28608</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21937; 34751</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>137156; 239658</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>123126; 194201</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>156214; 239313</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>147215; 243683</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>15101; 24566</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>17709; 27877</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>283132; 420021</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>262840; 394542</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>263831; 372207</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>277249; 397249</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>35355; 49310</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>43060; 59272</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
